--- a/ReportingContetieuxserveur.xlsx
+++ b/ReportingContetieuxserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01538B44-5925-411C-A767-195497263FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1513775C-1291-4079-9520-E9999C58EBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="56">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -189,17 +189,17 @@
     <t>/RETOUR_LDR/RETOUR_LDR_CBTP</t>
   </si>
   <si>
-    <t>/RETOUR_HOSPI/RETOUR_HOSPI_CAPIO</t>
-  </si>
-  <si>
     <t>/RETOUR_LDR/RETOUR_LDR_ALMERYS</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_SPE_HOSPI_CAPIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,32 +213,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,13 +234,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,27 +552,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="40.5703125" customWidth="1"/>
-    <col min="10" max="10" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,523 +829,469 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="J20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4" t="s">
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="4" t="s">
+      <c r="J24" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ReportingContetieuxserveur.xlsx
+++ b/ReportingContetieuxserveur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1513775C-1291-4079-9520-E9999C58EBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192A0956-08FE-46F0-BBE7-1B3397438AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -554,7 +554,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
